--- a/DocumentUnderstandingProcess/contentFiles/any/any/pt1/CSharp/Tests/Cache/Config_Expected.xlsx
+++ b/DocumentUnderstandingProcess/contentFiles/any/any/pt1/CSharp/Tests/Cache/Config_Expected.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teodora.patrascu\PycharmProjects\Unit_Module_Testing\DocumentUnderstandingProcess\contentFiles\any\any\pt1\CSharp\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergiu Wittenberger\PycharmProjects\StudioTemplates\DocumentUnderstandingProcess\contentFiles\any\any\pt1\CSharp\Tests\Cache\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E11C710-0E8A-4264-A467-3DAA01795522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A86AA2-8BC4-4030-9E86-6779FC218288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="218">
   <si>
     <t>Name</t>
   </si>
@@ -679,6 +679,15 @@
   </si>
   <si>
     <t>Path to the Orchestrator Folder where the Queue resides. Has a corresponding asset that can be configured to overwrite this setting.</t>
+  </si>
+  <si>
+    <t>ClassificationThreshold</t>
+  </si>
+  <si>
+    <t>Classification threshold for Classification Business Rule Validation must be a value between 0 and 1.</t>
+  </si>
+  <si>
+    <t>DU_ClassificationThreshold</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1311,64 +1320,78 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="3"/>
+    </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" t="s">
-        <v>210</v>
-      </c>
-    </row>
+        <v>215</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B24" s="3"/>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="3"/>
+        <v>37</v>
+      </c>
       <c r="C26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>79</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+    </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2341,6 +2364,8 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{EF98B574-7169-43E5-821B-D4670F472688}"/>
@@ -3793,8 +3818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3968,7 +3993,17 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/DocumentUnderstandingProcess/contentFiles/any/any/pt1/CSharp/Tests/Cache/Config_Expected.xlsx
+++ b/DocumentUnderstandingProcess/contentFiles/any/any/pt1/CSharp/Tests/Cache/Config_Expected.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandru.hojda\PycharmProjects\StudioTemplates\DocumentUnderstandingProcess\contentFiles\any\any\pt1\CSharp\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandru.hojda\PycharmProjects\StudioTemplates\DocumentUnderstandingProcess\contentFiles\any\any\pt0\VisualBasic\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC960BA-D9DB-4236-A9EA-A6E74E80E0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65071DC9-9CC3-4E4E-B540-A91DCA7097C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -5067,8 +5067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5007CE1-A05D-4745-B7EA-4E0BD0A3B111}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5271,21 +5271,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E3A3D5-A5D2-470F-B877-63AC0F081528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D1FA23-0F05-4B8D-B77D-DF9AB2091E72}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.85546875" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" customWidth="1"/>
-    <col min="3" max="3" width="114.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="60.28515625" customWidth="1"/>
+    <col min="2" max="2" width="79.42578125" customWidth="1"/>
+    <col min="3" max="3" width="221.28515625" customWidth="1"/>
+    <col min="4" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
